--- a/Profiles2.xlsx
+++ b/Profiles2.xlsx
@@ -2,21 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,17 +26,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -55,35 +46,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -446,20 +425,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="18.140625" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="27.85546875" customWidth="1" min="3" max="3"/>
-    <col width="27.42578125" customWidth="1" min="4" max="4"/>
-    <col width="36.7109375" customWidth="1" min="6" max="6"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -504,7 +476,7 @@
           <t>Lahore</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/aleena-it-recruiter?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEcwS5EBMQUsEPBQc38-XzjWVUw4_QLcnuc</t>
         </is>
@@ -528,192 +500,192 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>May Ann M.</t>
+          <t>Katie George Westerberg</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Manila</t>
+          <t>Conshohocken, PA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/may-ann-m-92247815b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACZVkioBVfzHoSZj6xe54JupTSZZN6O5ANU</t>
+          <t>https://www.linkedin.com/in/kgeorge406?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADNGyMBB10c_mqb24P3BGbgXvXZNXW7mAw</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>End-to-end recruitmentEnd-to-end recruitment</t>
+          <t>Liberty Personnel Services, Inc.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Recruitment | Talent Acquisition | Tech, Non-tech &amp; IT Recruitment | Connecting Top Talent with Leading Clients and Companies</t>
+          <t>Connecting talented professionals with innovative companies in IT, Accounting and Finance, Marketing, HR and Engineering.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>mhayann1998@gmail.com</t>
+          <t>kg@libertyjobs.com</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Shahveer Malik</t>
+          <t>Tekle Tvildiani</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Multan</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/shahveer-malik-58abb31b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADLmpnoBKIrYneC16OPU9H-oHrLaBtZOhLA</t>
+          <t>https://www.linkedin.com/in/tekle-tvildiani?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD04qv0Bz1xjHpD0YOVCKrBmkmPG42dAMHc</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Redex IT Limited</t>
+          <t>DevsData Tech Talent LLC - IT Recruitment</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Technical Support Executive | Helping Companies Find the Best Tech Talent | IT &amp; Engineering Recruiter | Recruiter | Turning Job Searches into Success Stories.</t>
+          <t>🌍Tech Recruiter @ DevsData | connecting IT Talent with Leading Companies in the US &amp; Europe 🚀</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>operations@rdxit.com</t>
+          <t>lisa.lomadze@devsdata.com</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tekle Tvildiani</t>
+          <t>Umair Daad</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Lahore</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/tekle-tvildiani?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD04qv0Bz1xjHpD0YOVCKrBmkmPG42dAMHc</t>
+          <t>https://www.linkedin.com/in/umair-daad?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEYoZGwBPOcRdSidj0z12qsHWKN9bqiIZTQ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DevsData Tech Talent LLC - IT Recruitment</t>
+          <t>TechVernology</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>🌍Tech Recruiter @ DevsData | connecting IT Talent with Leading Companies in the US &amp; Europe 🚀</t>
+          <t>International IT Recruiter | Technical Talent Acquisition | Hiring for Europe, US &amp; Pakistan | Connecting Top IT Talent with Global Companies</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>lisa.lomadze@devsdata.com</t>
+          <t>muhammad.nouman@emiratestalentsolution.com</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sidra R.</t>
+          <t>May Ann M.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Islāmābād, Pakistan</t>
+          <t>Manila</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/sidra-rafique?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA3CyHwBEs1ppjdGbOJpECoHCp3t-z44x5s</t>
+          <t>https://www.linkedin.com/in/may-ann-m-92247815b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACZVkioBVfzHoSZj6xe54JupTSZZN6O5ANU</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Annual Performance Award 2024Annual Performance Award 2024</t>
+          <t>End-to-end recruitmentEnd-to-end recruitment</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>HR Manager | Technical Recruiter | OD Specialist  | Possibly Your Future Colleague</t>
+          <t>Recruitment | Talent Acquisition | Tech, Non-tech &amp; IT Recruitment | Connecting Top Talent with Leading Clients and Companies</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>saba.hr@technolimedia.com</t>
+          <t>mhayann1998@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Priyadarshini Chelva</t>
+          <t>Kainat Ali</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hyderabad</t>
+          <t>Lahore</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/priyadarshini-chelva?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB2qJ1cBs9RCR2ePNjljc64embNeA59HovA</t>
+          <t>https://www.linkedin.com/in/kainat-ali123?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADXpsTEB9wKOBIYJIfpccW-_8FdcfhtYyMk</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sree Chaitanya College of Engineering</t>
+          <t>Nextbridge Ltd.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A seasoned expert in Leadership Hiring, Volume/Bulk Hiring, and HR Operations, with a strong focus on Global IT Product-Based Companies, Services, and Startups.</t>
+          <t>Global Talent Acquisition | US/UAE Tech Recruiter | 500+ Hires | Helping Startups &amp; Enterprises Build High-Impact Teams</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>priyadarshini.chelva@deshaw.com</t>
+          <t>kainat.ali@nxb.com.pk</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kainat Ali</t>
+          <t>Sidra R.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>Islāmābād, Pakistan</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/kainat-ali123?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADXpsTEB9wKOBIYJIfpccW-_8FdcfhtYyMk</t>
+          <t>https://www.linkedin.com/in/sidra-rafique?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA3CyHwBEs1ppjdGbOJpECoHCp3t-z44x5s</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Nextbridge Ltd.</t>
+          <t>Annual Performance Award 2024Annual Performance Award 2024</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Global Talent Acquisition | US/UAE Tech Recruiter | 500+ Hires | Helping Startups &amp; Enterprises Build High-Impact Teams</t>
+          <t>HR Manager | Technical Recruiter | OD Specialist  | Possibly Your Future Colleague</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>kainat.ali@nxb.com.pk</t>
+          <t>saba.hr@technolimedia.com</t>
         </is>
       </c>
     </row>
@@ -752,103 +724,485 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Shreya Srivastava</t>
+          <t>Shahveer Malik</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kanpur</t>
+          <t>Multan</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/shreya-srivastava-3392601bb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADMd790Bq_XZM0z2dCSaPbixWbybzQQXisY</t>
+          <t>https://www.linkedin.com/in/shahveer-malik-58abb31b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADLmpnoBKIrYneC16OPU9H-oHrLaBtZOhLA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Krazy Mantra Group of Companies</t>
+          <t>Redex IT Limited</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>HR Recruiter || Non It Recruiter</t>
+          <t>Technical Support Executive | Helping Companies Find the Best Tech Talent | IT &amp; Engineering Recruiter | Recruiter | Turning Job Searches into Success Stories.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>shreya.srivastava@krazymantra.com</t>
+          <t>operations@rdxit.com</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Roselin Rego</t>
+          <t>Bhawna Mishra</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dubai, United Arab Emirates</t>
+          <t>India</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/roselin-rego-692272185?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACuksE4Br_NHLL3ZOj0dedVqW7MiYovmb9c</t>
+          <t>https://www.linkedin.com/in/bhawna-mishra-0b0b24200?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADNsgYQB04WnxZZB4OnEwbHkCLqSV2Nh4L4</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PACT EMPLOYMENT SERVICES</t>
+          <t>Ambience HR LLP</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>HR Recruitment Consultant @ Derby Group || Pact Employment Services | 134k followers | MBA - HR, Finance |</t>
+          <t>"Driving Growth Through Exceptional Talent | Sr. IT Recruiter | Specializing in Product, SaaS, and Service Industries | Connecting Top Tech Talent with Innovative Companies"</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>shivani@pactemployment.ae</t>
+          <t>bhawna@ambiencehr.com</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Neha Tripathi</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Noida</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/neha-tripathi-425a4125?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAVQlR0BWTI5o1BAus8AKu0Va9j36IZ-aic</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Institute of Management Education</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Talent Advisor | Human Resource Specialist | Niche Talent Acquisition | HR Practitioner (Consultant)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>neha@limitlessmobil.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Shreya Srivastava</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Kanpur</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/shreya-srivastava-3392601bb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADMd790Bq_XZM0z2dCSaPbixWbybzQQXisY</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Krazy Mantra Group of Companies</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>HR Recruiter || Non It Recruiter</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>shreya.srivastava@krazymantra.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Roselin Rego</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/roselin-rego-692272185?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACuksE4Br_NHLL3ZOj0dedVqW7MiYovmb9c</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>PACT EMPLOYMENT SERVICES</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>HR Recruitment Consultant @ Derby Group || Pact Employment Services | 134k followers | MBA - HR, Finance |</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>shivani@pactemployment.ae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Siya Thakur</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sahibzada Ajit Singh Nagar</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/siya-thakur-8b3208279?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEPXIwcB2z23gGAgUpaSKJbpi6ruRwwKSQk</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Lakhera Global Services Private Limited</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>HR Executive | Expertise in Talent Acquisition | Employee Engagement | Aligning People with the Right Jobs</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>recruiter@lakheraglobalservices.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Omar Zafar Ansari -CHRMP-CPHR</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Karāchi</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/omarza?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB9boaABFK0kOmyGNtLMe9HFgIyzq5qusJE</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Appedology Pvt. Ltd.</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Strategic Human Resource Business Partner | Expertise in HR Operations | Talent Acquisition , Founder Z-Team Foundation Page | HCM Deployment | U.S Certified HRBP | xIBEX | xCareem | Helped 10000+ People to Get Jobs</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>omaransari.edu@gmail.com</t>
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ashkhen (Tochor) Hovhannisyan</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Yerevan, Armenia</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/tochor?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACONqgABNUxPRfgvo_mJLGg1VElwqzJjI-0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Magnus HR</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Helping Recruiters and Companies Build Top IT Teams | Recruitment Mastery Coach | IT Hiring Strategist | Trainer &amp; Lecturer</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>info@magnus-hr.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Nandini Jani</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Ahmedabad</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/nandini-jani?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADFxjjEBE_pXa4TIawN454uuVrKm5mOoibY</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Ninez Tech</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>HR Professional Specializing in Recruitment and Talent Acquisition | HR Recruiter | HR Executive | IT Companies | End to End Recruitment | Technical Recruiter | Talent Acquisition | Team Management</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>nandini.jani@nineztech.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Abhishek Kumar</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Jaipur</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/abhishek-kumar-47a6321bb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADMsOx4BF92YnoIYSTD7WxdaIPfCZSdylH0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Grras Solutions (P) Ltd</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Tech Recruitment | Pre-Trained &amp; Vetted Candidates | Scalable Hiring from Colleges | Partner to 50+ IT Companies</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>hr@grrassolutions.in</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>priya gupta</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Delhi, India</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/priya-gupta-366629237?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADsA2L4BwFDOrJV4oee8PK6OCOdyiPCxZXg</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VARITE INC</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Senior Associate- Talent Acquisition @Varite inc | MBA, IT Recruitment
+Hiring for Product Companies | Service Based | Frontend &amp; Backend Developers | Product Managers | Business Analysts</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>apply-priya.gupta@varite.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>karthik V</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/karthikhrexecutive?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAf6wXYB32PzAGqolrEc7a8Yi5AR22empdo</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Accenture</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>" HR Recruiter at Accenture | Talent Acquisition | Helping Companies Find Their Dream Teams  | IT Recruitment | C2H Hiring | Resolving Workplace Challenges | HR Operations | "</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>v.karthik@accenture.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Layeeq Ahmed</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/layeeq-ahmed-4a7711224?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADhYrn8BwPxZpyBm80Z4WYx88s627mHCato</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Reveille Technologies,Inc</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Talent Acquisition Specialist | IT Recruitment | Expert in Hiring for Product &amp; Service-based Companies</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>layeeq@reveilletechnologies.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sakshi khanka</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Dehradun</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/sakshi-khanka-baa178191?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC0Nj7IBK673sj2FHmFF1YhkLxKXGRJteFw</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>New Era India</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>|| Results-Driven HR Professional | Expertise in Recruitment, Consultant|| IT Recruitment|| NON IT Recruitment||  Onboarding ||  Hiring for Leadership role for Product and service based companies ||</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>sakshi.khanka@neweraindia.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Anusha Thumbe</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/anusha-tahr?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAmq2O4BbsWNM9ysotkMJkC0V6nGWE7_EKc</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Sphere IT</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Human Resources Manager at Sphere IT  | HRBP | HR Operations | Hiring in UAE</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>careers@sphereitglobal.com</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>